--- a/biology/Botanique/Liriope_muscari/Liriope_muscari.xlsx
+++ b/biology/Botanique/Liriope_muscari/Liriope_muscari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liriope muscari est une espèce de plantes monocotylédones originaires de Chine et du Japon de la famille des Liliacées ou Asparagacées selon la classification.
 Nom chinois : 阔叶山麦冬
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante herbacée vivace, cespiteuse, presque sans tige.
 Ses feuilles, lancéolées, ont plus de vingt centimètres de long sur dix à douze millimètres de large. Elles sont persistantes.
@@ -528,7 +542,7 @@
 Liriope muscari fo. praealba (Makino) Nemoto (1936)
 Liriope muscari fo. variegata (L.H.Bailey) H.Hara (1984) - synonyme Liriope muscari var. variegata L.H.Bailey
 Liriope muscari var. variegata L.H.Bailey (1929) : voir Liriope muscari fo. variegata (L.H.Bailey) H.Hara
-Liriope muscari a 72 chromosomes[1].  Il s'agit d'une espèce tetraploïde.
+Liriope muscari a 72 chromosomes.  Il s'agit d'une espèce tetraploïde.
 </t>
         </is>
       </c>
@@ -557,7 +571,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Liriope muscari est originaire de Chine (Anhui, Fujian, Guangdong, Guangxi, Guizhou, Henan, Hubei, Hunan, Jiangxi, Shaanxi, Sichuan, Zhejiang), de Corée, du Japon et du Viêt Nam.
 Cette espèce s'est maintenant diffusée comme plante ornementale dans l'ensemble des pays à climat tempéré, en raison de sa floraison estivale. Elle compte de nombreuses variétés horticoles dont 'Big Blue', 'Christmas Tree', 'Gold Band', 'John Burch', 'Monroe White', 'Okina', 'Royal Purple', 'Silvery Midget', 'Super Blue', 'Variegata' et 'Wideleaf Webster' sont les plus connues.
@@ -596,7 +612,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En 1869, Joseph Decaisne décrit cette plante dans le genre Ophiopogon : Ophiopogon muscari Decne.
 En 1929, Liberty Hyde Bailey la place dans le genre Liriope : Liriope muscari (Decne.) L.H.Bailey
@@ -632,9 +650,11 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude pilote, randomisée et contrôlée par placebo, en double aveugle, a montré que l'extrait de Liriope platyphylla peut améliorer les fonctions respiratoires[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude pilote, randomisée et contrôlée par placebo, en double aveugle, a montré que l'extrait de Liriope platyphylla peut améliorer les fonctions respiratoires.
 </t>
         </is>
       </c>
